--- a/БЖД/Практические/Практическая 5.xlsx
+++ b/БЖД/Практические/Практическая 5.xlsx
@@ -83,6 +83,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Курбатова Софья Андреевна:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Глубина заземления от 0.5 до 1,5 м</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
@@ -110,7 +136,138 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
+    <comment ref="F13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Курбатова Софья Андреевна:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Т.к. вертикальный, и нормальная влажность, пусть 2 климатическая зона</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Курбатова Софья Андреевна:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Отношение а к l</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Курбатова Софья Андреевна:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+a*b = 40*4
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Курбатова Софья Андреевна:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+По таблице 1.4</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Курбатова Софья Андреевна:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+т.к. отношение равно 2, и количество стержней 6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,11 +315,37 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Глубина заземления от 0.5 до 1,5 м</t>
+по таблице 1.5</t>
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0">
+    <comment ref="E22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Курбатова Софья Андреевна:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Берем 1-ю формулу так как все в РЯД</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,38 +372,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Курбатова Софья Андреевна:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Т.к. вертикальный, и нормальная влажность, пусть 2 климатическая зона</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t xml:space="preserve">Вариант </t>
   </si>
@@ -323,6 +480,9 @@
   </si>
   <si>
     <t>t0</t>
+  </si>
+  <si>
+    <t>м</t>
   </si>
   <si>
     <t>Расчет расстояния от середины заземлителя до поверхности земли (1.2) t (м)</t>
@@ -375,12 +535,57 @@
   <si>
     <t>nОРИЕНТ</t>
   </si>
+  <si>
+    <t>в ряд</t>
+  </si>
+  <si>
+    <t>8 и 18</t>
+  </si>
+  <si>
+    <t>коэфОРИЕНТ</t>
+  </si>
+  <si>
+    <t>Расстояние между стержнями а</t>
+  </si>
+  <si>
+    <t>Отношение (для коэффициента)</t>
+  </si>
+  <si>
+    <t>nУТОЧН</t>
+  </si>
+  <si>
+    <t>Lп</t>
+  </si>
+  <si>
+    <t>Длина соединительной полосы (1.6) и (1.7) Lп м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сопротивление растеканию тока (1.8) </t>
+  </si>
+  <si>
+    <t>dП</t>
+  </si>
+  <si>
+    <t>ширина соединительной полосы</t>
+  </si>
+  <si>
+    <t>Rг</t>
+  </si>
+  <si>
+    <t>коэффНАЗЕМ</t>
+  </si>
+  <si>
+    <t>Rрез</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таким образом, расчет выполнен верно, поскольку результирующее сопротивление - 2,57 ОМ меньше чем допустимое - 10 Ом (в соответствии с Правилами устройства электроустановок ПУЭ). Следовательно заземление следует выполнять из 8 труб с диаметром 0,008 м, соединненых  между собой полосой 0,04*0,004 м. Длина горизонтального заземлителя должна быть 28,32 м, а расстояние между горизонтальными заземлителями должно составлять 2 м. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +593,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -419,7 +631,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,8 +650,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -447,46 +671,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -517,7 +866,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>571099</xdr:colOff>
+      <xdr:colOff>571100</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104710</xdr:rowOff>
     </xdr:to>
@@ -555,7 +904,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>275868</xdr:colOff>
+      <xdr:colOff>275869</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>247561</xdr:rowOff>
     </xdr:to>
@@ -626,14 +975,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>189826</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66380</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -664,14 +1013,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>113623</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142623</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -702,14 +1051,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>304193</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>37993</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>37992</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -740,13 +1089,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>342231</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>133006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -766,6 +1115,158 @@
         <a:xfrm>
           <a:off x="12773025" y="9305925"/>
           <a:ext cx="5352381" cy="2752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>51013</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>29523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12940393" y="12545786"/>
+          <a:ext cx="5561905" cy="3295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>68343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>333585</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>172273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13226143" y="16233629"/>
+          <a:ext cx="7232406" cy="3369644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>160833</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>127559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13389429" y="20043321"/>
+          <a:ext cx="8733333" cy="2780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>77917</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>163988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13389429" y="23567571"/>
+          <a:ext cx="8038095" cy="5266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1040,15 +1541,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
@@ -1062,31 +1563,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1095,18 +1596,18 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1119,18 +1620,18 @@
         <f>B4*1000</f>
         <v>7500</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1139,18 +1640,18 @@
       <c r="B5" s="1">
         <v>380</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1159,34 +1660,58 @@
       <c r="B6" s="1">
         <v>2960</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="E6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="E7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1200,11 +1725,23 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1213,6 +1750,13 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
+        <f>1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1221,6 +1765,13 @@
       <c r="B12" s="1">
         <v>0.08</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1">
+        <f>B13/2 +F11</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1229,6 +1780,12 @@
       <c r="B13" s="1">
         <v>2</v>
       </c>
+      <c r="E13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1237,191 +1794,345 @@
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1">
+        <f>2*B13</f>
+        <v>4</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="15">
+        <f>B15/2</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="15">
+        <f>F13*B9</f>
+        <v>187.5</v>
+      </c>
+      <c r="G16" s="1">
+        <f>F13*C9</f>
+        <v>73.5</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="E17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="16">
+        <f>((F16/(2*3.14*$B$13))*(LN(((2*$B$13)/$B$12))+0.5*LN((4*F12+$B$13)/(4*$F$12-$B$13))))</f>
+        <v>62.212915266388457</v>
+      </c>
+      <c r="G17" s="13">
+        <f>((G16/(2*3.14*$B$13))*(LN(((2*$B$13)/$B$12))+0.5*LN((4*G12+$B$13)/(4*$F$12-$B$13))))</f>
+        <v>19.678319211020359</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="17">
+        <f>F17/$F$26</f>
+        <v>6.2212915266388453</v>
+      </c>
+      <c r="G18" s="14">
+        <f>G17/$F$26</f>
+        <v>1.9678319211020359</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="E19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.77</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B20" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.84</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B21" s="1">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="17">
+        <f>F18/F19</f>
+        <v>8.0795993852452543</v>
+      </c>
+      <c r="G21" s="14">
+        <f>G18/G19</f>
+        <v>2.1624526605516876</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="16">
+        <f>$B$15*(F21-1)</f>
+        <v>28.318397540981017</v>
+      </c>
+      <c r="G22" s="12">
+        <f>$B$15*(G21-1)</f>
+        <v>4.6498106422067504</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="1">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="15">
+        <f>0.5*C18</f>
+        <v>2E-3</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>44136</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="16">
+        <f>(F16/(2*3.14*F22))*LN(LN((2*F22*F22)/($F$23*$F$11)))</f>
+        <v>2.751447154003785</v>
+      </c>
+      <c r="G24" s="12">
+        <f>(G16/(2*3.14*G22))*LN(LN((2*G22*G22)/($F$23*$F$11)))</f>
+        <v>5.7910456294659314</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E25" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="27">
+        <f>(F17*F24)/(F17*F19+F24*F20*F21)</f>
+        <v>2.5710665946356772</v>
+      </c>
+      <c r="G25" s="1">
+        <f>(G17*G24)/(G17*G19+G24*G20*G21)</f>
+        <v>3.8397170714759867</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26"/>
+    </row>
+    <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>44136</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="1">
-        <f>B13/2 +F20</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="10"/>
-      <c r="F23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="1">
-        <f>F22*B9</f>
-        <v>187.5</v>
-      </c>
-      <c r="G24" s="1">
-        <f>F22*C9</f>
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="11">
-        <f>((F24/(2*3.14*$B$13))*(LN(((2*$B$13)/$B$12))+0.5*LN((4*F21+$B$13)/(4*$F$21-$B$13))))</f>
-        <v>62.212915266388457</v>
-      </c>
-      <c r="G25" s="11">
-        <f>((G24/(2*3.14*$B$13))*(LN(((2*$B$13)/$B$12))+0.5*LN((4*G21+$B$13)/(4*$F$21-$B$13))))</f>
-        <v>19.678319211020359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="16:23" x14ac:dyDescent="0.25">
+      <c r="P49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="12">
-        <f>F24/$H$20</f>
-        <v>18.75</v>
-      </c>
-      <c r="G26" s="12">
-        <f>G24/$H$20</f>
-        <v>7.35</v>
-      </c>
-    </row>
-    <row r="45" spans="16:23" x14ac:dyDescent="0.25">
-      <c r="P45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
     <mergeCell ref="P14:W14"/>
     <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="E10:N10"/>
     <mergeCell ref="E6:N6"/>
-    <mergeCell ref="P45:W45"/>
+    <mergeCell ref="P49:W49"/>
+    <mergeCell ref="E7:N7"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="I16:N25"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A16:C16"/>
     <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="E4:N4"/>
